--- a/data/acc109/revenus/data_50001-plus.xlsx.xlsx
+++ b/data/acc109/revenus/data_50001-plus.xlsx.xlsx
@@ -47,12 +47,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="85">
   <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Vertices</t>
+  </si>
+  <si>
+    <t>Edges</t>
   </si>
   <si>
     <t>Diameter</t>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>Average path length</t>
-  </si>
-  <si>
-    <t>Girth</t>
   </si>
   <si>
     <t>Reciprocity</t>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -689,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -700,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01721198018014403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -711,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.036756267224621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -722,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0.01721198018014403</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -733,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.04836829836829837</v>
+        <v>4.036756267224621</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -744,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.85759493670886</v>
+        <v>0.04836829836829837</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -755,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.05676072418854999</v>
+        <v>4.85759493670886</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -766,6 +769,17 @@
         <v>10</v>
       </c>
       <c r="C10">
+        <v>0.05676072418854999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>75.32867132867133</v>
       </c>
     </row>
@@ -784,43 +798,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -838,43 +852,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -892,43 +906,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -946,43 +960,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1000,43 +1014,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1054,43 +1068,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1108,43 +1122,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1167,25 +1181,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1208,25 +1222,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1249,25 +1263,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1290,25 +1304,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1331,25 +1345,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1372,25 +1386,25 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>109</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1413,22 +1427,22 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1451,22 +1465,22 @@
         <v>0.01488852863939793</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1489,22 +1503,22 @@
         <v>0.02754377798288617</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1522,43 +1536,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1581,25 +1595,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
-      </c>
-      <c r="J2">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1622,25 +1636,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3">
-        <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1663,22 +1677,22 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1701,25 +1715,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1742,25 +1756,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1783,25 +1797,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1824,25 +1838,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1865,25 +1879,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1906,25 +1920,25 @@
         <v>0.005676075768044949</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1947,22 +1961,22 @@
         <v>0.01127281488138943</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1985,22 +1999,22 @@
         <v>0.008088407969464053</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2023,25 +2037,25 @@
         <v>0.01489131318351809</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
         <v>29</v>
-      </c>
-      <c r="J13">
-        <v>109</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2059,43 +2073,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2118,22 +2132,22 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2156,25 +2170,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2197,25 +2211,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2238,25 +2252,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2279,25 +2293,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2320,25 +2334,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2361,25 +2375,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
-      </c>
-      <c r="J8">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2402,25 +2416,25 @@
         <v>0.005295610315232267</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
         <v>29</v>
-      </c>
-      <c r="J9">
-        <v>109</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2443,22 +2457,22 @@
         <v>0.005786020920300469</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2481,25 +2495,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2522,25 +2536,25 @@
         <v>0.005845570779487322</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2563,25 +2577,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
         <v>29</v>
-      </c>
-      <c r="J13">
-        <v>109</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2604,25 +2618,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2645,25 +2659,25 @@
         <v>0.008448249919242137</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2686,25 +2700,25 @@
         <v>0.004945317025897836</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
         <v>29</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16">
-        <v>109</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2727,25 +2741,25 @@
         <v>0.01411306446415035</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
         <v>29</v>
-      </c>
-      <c r="J17">
-        <v>109</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2768,22 +2782,22 @@
         <v>0.006726844430348652</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J18">
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2806,25 +2820,25 @@
         <v>0.006376551141014222</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
         <v>29</v>
-      </c>
-      <c r="J19">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2842,43 +2856,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2901,25 +2915,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2942,22 +2956,22 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2980,25 +2994,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3021,25 +3035,25 @@
         <v>0.005027326370120127</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3062,25 +3076,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3103,25 +3117,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3144,25 +3158,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3185,25 +3199,25 @@
         <v>0.006388226820630351</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3226,25 +3240,25 @@
         <v>0.007197962588683937</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3267,22 +3281,22 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3305,25 +3319,25 @@
         <v>0.005118053066820808</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3346,25 +3360,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3387,22 +3401,22 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14">
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3425,25 +3439,25 @@
         <v>0.007021187565052286</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
         <v>29</v>
-      </c>
-      <c r="J15">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3466,22 +3480,22 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -3504,25 +3518,25 @@
         <v>0.004482966189916037</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
         <v>29</v>
-      </c>
-      <c r="J17">
-        <v>109</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3540,43 +3554,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3594,43 +3608,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3653,25 +3667,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3694,25 +3708,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3735,25 +3749,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3776,25 +3790,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3817,25 +3831,25 @@
         <v>0.004947971896792558</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3858,22 +3872,22 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3896,22 +3910,22 @@
         <v>0.002483048167987474</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3934,25 +3948,25 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3975,25 +3989,25 @@
         <v>0.003094098990701195</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4016,25 +4030,25 @@
         <v>0.002483048167987474</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
         <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4057,25 +4071,25 @@
         <v>0.05809406831687963</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
         <v>29</v>
-      </c>
-      <c r="J12">
-        <v>109</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4098,22 +4112,22 @@
         <v>0.002174932701886839</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4136,25 +4150,25 @@
         <v>0.003099279100188745</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
         <v>29</v>
-      </c>
-      <c r="J14">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4172,43 +4186,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4231,25 +4245,25 @@
         <v>0.006806883632023961</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4272,22 +4286,22 @@
         <v>0.005105162724017971</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4310,25 +4324,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4351,25 +4365,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4392,25 +4406,25 @@
         <v>0.008834696782885315</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
-      </c>
-      <c r="J6">
-        <v>109</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4433,25 +4447,25 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4474,25 +4488,25 @@
         <v>0.01193683946797904</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
-      </c>
-      <c r="J8">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4515,22 +4529,22 @@
         <v>0.00358257033264419</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4553,25 +4567,25 @@
         <v>0.007693569789353398</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4589,43 +4603,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4648,25 +4662,25 @@
         <v>0.00392221244679275</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4689,25 +4703,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4730,22 +4744,22 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4768,25 +4782,25 @@
         <v>0.003462495618501405</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4809,25 +4823,25 @@
         <v>0.003615791388996549</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4850,25 +4864,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4891,25 +4905,25 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4932,22 +4946,22 @@
         <v>0.00292702421402444</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4970,25 +4984,25 @@
         <v>0.004088192399360857</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5011,22 +5025,22 @@
         <v>0.003286259521936223</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5049,25 +5063,25 @@
         <v>0.006472382293261543</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
         <v>29</v>
-      </c>
-      <c r="J12">
-        <v>109</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5085,43 +5099,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5144,22 +5158,22 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5182,25 +5196,25 @@
         <v>0.005389407327258514</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3">
-        <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5223,25 +5237,25 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5264,25 +5278,25 @@
         <v>0.009634869997478536</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5305,25 +5319,25 @@
         <v>0.006705979285444946</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5346,25 +5360,25 @@
         <v>0.007279357068973118</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5387,22 +5401,22 @@
         <v>0.004553532955713049</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5425,25 +5439,25 @@
         <v>0.008091609653117223</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
         <v>29</v>
-      </c>
-      <c r="J9">
-        <v>109</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5466,25 +5480,25 @@
         <v>0.003934787604850334</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5502,43 +5516,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5561,25 +5575,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>109</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
-      </c>
-      <c r="J2">
-        <v>109</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5602,25 +5616,25 @@
         <v>0.008958254420135616</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5643,22 +5657,22 @@
         <v>0.009987243103529572</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5681,25 +5695,25 @@
         <v>0.005253895159917375</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5722,25 +5736,25 @@
         <v>0.006214284597751734</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5763,25 +5777,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5804,22 +5818,22 @@
         <v>0.006039668336327305</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5842,25 +5856,25 @@
         <v>0.004842299686559793</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
         <v>29</v>
-      </c>
-      <c r="J9">
-        <v>109</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5883,25 +5897,25 @@
         <v>0.00772346800006287</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5924,25 +5938,25 @@
         <v>0.005665490633274957</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
         <v>29</v>
-      </c>
-      <c r="J11">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5960,43 +5974,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6019,25 +6033,25 @@
         <v>0.005098713177934673</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6060,25 +6074,25 @@
         <v>0.009384278683441915</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6101,25 +6115,25 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
-      </c>
-      <c r="J4">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6142,25 +6156,25 @@
         <v>0.004603738704805299</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>114</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6183,25 +6197,25 @@
         <v>0.004853029987208906</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6224,22 +6238,22 @@
         <v>0.005766483189322974</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6262,25 +6276,25 @@
         <v>0.005279781316701651</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6303,25 +6317,25 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6344,25 +6358,25 @@
         <v>0.00706293906290067</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6385,22 +6399,22 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6423,22 +6437,22 @@
         <v>0.004206461760735806</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6456,43 +6470,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6515,25 +6529,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6556,25 +6570,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6597,25 +6611,25 @@
         <v>0.004255273963542108</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>114</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6638,25 +6652,25 @@
         <v>0.004308540154124118</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6679,22 +6693,22 @@
         <v>0.00421088612145908</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6717,25 +6731,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6758,25 +6772,25 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6799,22 +6813,22 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6837,25 +6851,25 @@
         <v>0.007423434140777838</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6878,22 +6892,22 @@
         <v>0.003727247267336153</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6916,25 +6930,25 @@
         <v>0.004255273963542108</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
         <v>29</v>
-      </c>
-      <c r="J12">
-        <v>109</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6952,43 +6966,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7011,25 +7025,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7052,25 +7066,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7093,25 +7107,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7134,25 +7148,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
-      </c>
-      <c r="J5">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7175,25 +7189,25 @@
         <v>0.008210598469192254</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7216,25 +7230,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7257,25 +7271,25 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
-      </c>
-      <c r="J8">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7298,22 +7312,22 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7336,25 +7350,25 @@
         <v>0.006854714731347017</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7377,22 +7391,22 @@
         <v>0.003705251206133523</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7410,43 +7424,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7469,25 +7483,25 @@
         <v>0.007163549492663743</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7510,25 +7524,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7551,25 +7565,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7592,25 +7606,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
         <v>29</v>
-      </c>
-      <c r="J5">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7633,22 +7647,22 @@
         <v>0.00552724576661584</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7671,25 +7685,25 @@
         <v>0.00552724576661584</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7712,25 +7726,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7753,25 +7767,25 @@
         <v>0.005161630287890279</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7794,25 +7808,25 @@
         <v>0.006624092202792525</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
         <v>29</v>
-      </c>
-      <c r="J10">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7830,43 +7844,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7889,25 +7903,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7930,25 +7944,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7971,25 +7985,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
-      </c>
-      <c r="J4">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8012,25 +8026,25 @@
         <v>0.006502270682876698</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8053,25 +8067,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
-      </c>
-      <c r="J6">
-        <v>109</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8094,25 +8108,25 @@
         <v>0.006129582320153899</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8135,25 +8149,25 @@
         <v>0.004562996970439788</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
-      </c>
-      <c r="J8">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8176,22 +8190,22 @@
         <v>0.009217253880288372</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -8214,22 +8228,22 @@
         <v>0.006502270682876698</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8252,25 +8266,25 @@
         <v>0.008829399137800991</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
         <v>29</v>
-      </c>
-      <c r="J11">
-        <v>109</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8288,43 +8302,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8342,43 +8356,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8401,25 +8415,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8442,25 +8456,25 @@
         <v>0.006457563946661278</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8483,25 +8497,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8524,25 +8538,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8565,25 +8579,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8606,25 +8620,25 @@
         <v>0.005656260391236156</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -8642,43 +8656,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8701,25 +8715,25 @@
         <v>0.01121926665043763</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8742,22 +8756,22 @@
         <v>0.00864186755506682</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8780,25 +8794,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8821,25 +8835,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8862,25 +8876,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8903,25 +8917,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
         <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
-        <v>109</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8944,25 +8958,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>29</v>
-      </c>
-      <c r="J8">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8985,25 +8999,25 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9026,25 +9040,25 @@
         <v>0.00864186755506682</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9067,22 +9081,22 @@
         <v>0.006064468459696014</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9100,43 +9114,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9159,25 +9173,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9200,25 +9214,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9241,25 +9255,25 @@
         <v>0.01150036944302263</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9282,25 +9296,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9323,25 +9337,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9364,25 +9378,25 @@
         <v>0.01137901388505407</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9405,25 +9419,25 @@
         <v>0.0166072094538627</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9446,25 +9460,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
         <v>29</v>
-      </c>
-      <c r="J9">
-        <v>109</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9487,25 +9501,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9528,25 +9542,25 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -9569,22 +9583,22 @@
         <v>0.006150818316245444</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9602,43 +9616,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -9661,25 +9675,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2">
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9702,25 +9716,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9743,25 +9757,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9784,25 +9798,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9825,25 +9839,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
-      </c>
-      <c r="J6">
-        <v>109</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9866,25 +9880,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7">
         <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9907,25 +9921,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9948,25 +9962,25 @@
         <v>0.007340422922303665</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9989,25 +10003,25 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10">
         <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10030,22 +10044,22 @@
         <v>0.005719810069327531</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11">
         <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -10068,22 +10082,22 @@
         <v>0.008150729348791732</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10101,44 +10115,44 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -10158,7 +10172,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -10178,47 +10192,47 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16">
         <v>1.111111111111111</v>
@@ -10238,7 +10252,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>2.5</v>
@@ -10258,7 +10272,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -10278,7 +10292,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>2.4375</v>
@@ -10298,7 +10312,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -10318,7 +10332,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>4.111111111111111</v>
@@ -10338,7 +10352,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>3.545454545454545</v>
@@ -10358,7 +10372,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>2.555555555555555</v>
@@ -10378,7 +10392,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>1.9</v>
@@ -10398,7 +10412,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>2.818181818181818</v>
@@ -10418,7 +10432,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26">
         <v>6.727272727272728</v>
@@ -10438,7 +10452,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>3.9</v>
@@ -10458,7 +10472,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>2.777777777777778</v>
@@ -10478,7 +10492,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>3.8</v>
@@ -10498,7 +10512,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -10518,7 +10532,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>4.6</v>
@@ -10538,7 +10552,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>4.363636363636363</v>
@@ -10558,7 +10572,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33">
         <v>4.272727272727272</v>
@@ -10591,43 +10605,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10645,43 +10659,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10699,43 +10713,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10758,10 +10772,10 @@
         <v>0.07380073800738006</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -10770,13 +10784,13 @@
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -10794,43 +10808,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -10853,10 +10867,10 @@
         <v>0.1047120418848168</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -10865,13 +10879,13 @@
         <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -10889,43 +10903,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10943,43 +10957,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
